--- a/Data Komilis v2.xlsx
+++ b/Data Komilis v2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\hravoaha\Desktop\Thèse\composting code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A966024F-D691-4F48-AB74-4EEF4B1F1117}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D51784E-88A7-48A2-BA7A-A69EE74ED661}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" activeTab="5" xr2:uid="{14B8D0C9-091E-43B5-9C59-8A05020574F1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{14B8D0C9-091E-43B5-9C59-8A05020574F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Composition of waste" sheetId="4" r:id="rId1"/>
-    <sheet name="Composition (mass)" sheetId="6" r:id="rId2"/>
-    <sheet name="Variables" sheetId="1" r:id="rId3"/>
+    <sheet name="Variables" sheetId="1" r:id="rId2"/>
+    <sheet name="Composition (mass)" sheetId="6" r:id="rId3"/>
     <sheet name="Xyield" sheetId="10" r:id="rId4"/>
     <sheet name="stoe" sheetId="7" r:id="rId5"/>
     <sheet name="kinetics" sheetId="2" r:id="rId6"/>
@@ -24,11 +24,10 @@
     <sheet name="reg" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Composition (mass)'!$B$1:$B$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Composition (mass)'!$B$1:$B$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Composition of waste'!$B$1:$B$113</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2646,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A43F10C-4AB5-4A1F-A346-6667884FAA0F}">
   <dimension ref="A1:CE113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
@@ -25928,11 +25927,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13E0657-BE6C-45BC-B891-D54361BD0D37}">
+  <dimension ref="A1:V47"/>
+  <sheetViews>
+    <sheetView zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" customWidth="1"/>
+    <col min="5" max="11" width="10.90625" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N1" t="s">
+        <v>436</v>
+      </c>
+      <c r="O1" t="s">
+        <v>640</v>
+      </c>
+      <c r="P1" t="s">
+        <v>647</v>
+      </c>
+      <c r="R1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="2">
+        <f>'Composition (mass)'!BR97/B39</f>
+        <v>0.20365546247682698</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <f>($F2*12)+($G2*1)+($H2*16)+($I2*14)</f>
+        <v>180</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N7" si="0">(B2*B$39)/(L2*0.001)</f>
+        <v>0.67885154158942329</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ref="O2:O7" si="1">F2*N2*12</f>
+        <v>48.877310994438474</v>
+      </c>
+      <c r="R2" t="s">
+        <v>523</v>
+      </c>
+      <c r="S2" t="s">
+        <v>309</v>
+      </c>
+      <c r="T2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U2" t="s">
+        <v>524</v>
+      </c>
+      <c r="V2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'Composition (mass)'!BO97/B39</f>
+        <v>4.9914115193077264E-2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L26" si="2">($F3*12)+($G3*1)+($H3*16)+($I3*14)</f>
+        <v>352</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>8.5080878170018068E-2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>16.335528608643468</v>
+      </c>
+      <c r="P3">
+        <f>I3*N3*14</f>
+        <v>4.7645291775210117</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>466</v>
+      </c>
+      <c r="R3">
+        <f>(F4-(G4/4)-(H4/2))</f>
+        <v>12.25</v>
+      </c>
+      <c r="S3">
+        <f>F5-(G5/4)-(H5/2)</f>
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <f>(F3-(G3/4)-(H3/2)+((3*I3)/4))</f>
+        <v>10.5</v>
+      </c>
+      <c r="U3">
+        <f>F2-(G2/4)-(H2/2)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>F7-(G7/4)-(H7/2)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'Composition (mass)'!BP97/B39</f>
+        <v>2.5361088391402772E-2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>45</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>393</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>3.871921891817217E-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>11.615765675451652</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>467</v>
+      </c>
+      <c r="R4">
+        <f>(F4/2)-(G4/8)+(H4/4)</f>
+        <v>7.625</v>
+      </c>
+      <c r="S4">
+        <f>(F5/2)-(G5/8)+(H5/4)</f>
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <f>(F3/2)-(G3/8)+(H3/4)+((3*I3)/8)</f>
+        <v>7.75</v>
+      </c>
+      <c r="U4">
+        <f>(F2/2)-(G2/8)+(H2/4)</f>
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <f>(F7/2)-(G7/8)+(H7/4)</f>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="33">
+        <f>'Composition (mass)'!BL97/B39</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>468</v>
+      </c>
+      <c r="R5">
+        <f>(F4/2)+(G4/8)-(H4/4)</f>
+        <v>17.375</v>
+      </c>
+      <c r="S5">
+        <f>(F5/2)+(G5/8)-(H5/4)</f>
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <f>(F3/2)+(G3/8)-(H3/4)-((3*I3)/8)</f>
+        <v>8.25</v>
+      </c>
+      <c r="U5">
+        <f>(F2/2)+(G2/8)-(H2/4)</f>
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <f>(F7/2)+(G7/8)-(H7/4)</f>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <f>'Composition (mass)'!BK97/B39</f>
+        <v>1.704528890020731E-3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>180</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>5.6817629667357704E-3</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.40908693360497544</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>469</v>
+      </c>
+      <c r="T6">
+        <f>I3</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <f>'Composition (mass)'!BN97/B39</f>
+        <v>1.5942837234335871E-4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>30</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>366</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>2.6135798744812905E-4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>6.2725916987550978E-2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>522</v>
+      </c>
+      <c r="R7">
+        <f>(R5*16)/L4</f>
+        <v>0.70737913486005088</v>
+      </c>
+      <c r="S7">
+        <f>(S5*16)/L5</f>
+        <v>0.28368794326241137</v>
+      </c>
+      <c r="T7">
+        <f>(T5*16)/L3</f>
+        <v>0.375</v>
+      </c>
+      <c r="U7">
+        <f>(U5*16)/L2</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="V7">
+        <f>(V5*16)/L7</f>
+        <v>0.53551912568306015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="2">
+        <f>'Composition (mass)'!G97/B39</f>
+        <v>1.0254305432973935E-2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>24</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>393</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>366</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <f>(B39*0.01)/B39/10</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <f>($F14*12)+($G14*1)+($H14*16)+($I14*14)</f>
+        <v>113</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <f>(B39*0.01)/B39/10</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <f>(B39*0.01)/B39/10</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <f>(B39*0.01)/B39/10</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="M17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <f>(B39*0.01)/B39/10</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="M18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <f>(B39*0.01)/B39/10</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20">
+        <f>(B39*0.01)/B39/10</f>
+        <v>1E-3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="M21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B22">
+        <f>'Composition (mass)'!D97/B39</f>
+        <v>0.71095393374741223</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E25" t="s">
+        <v>639</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26">
+        <f>(('Composition (mass)'!R97)-(Variables!P3*0.001))/B39</f>
+        <v>2.7685774312835446E-4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="L30">
+        <f>B26*(1+((4*0.001)/0.014))</f>
+        <v>3.559599554507414E-4</v>
+      </c>
+      <c r="N30">
+        <v>3.5595995545074102E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B39">
+        <f>'Composition (mass)'!C97</f>
+        <v>0.6</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B41" s="39">
+        <v>2E-3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>641</v>
+      </c>
+      <c r="B46">
+        <f>SUM(O2:O7)</f>
+        <v>77.300418129126129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>642</v>
+      </c>
+      <c r="B47">
+        <f>(B46*0.001)/B39</f>
+        <v>0.12883403021521023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DF1B96-6F36-403A-A03F-B41BA123E54D}">
   <dimension ref="A1:CD106"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50349,1239 +51575,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A13E0657-BE6C-45BC-B891-D54361BD0D37}">
-  <dimension ref="A1:V47"/>
-  <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" customWidth="1"/>
-    <col min="5" max="11" width="10.90625" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="N1" t="s">
-        <v>436</v>
-      </c>
-      <c r="O1" t="s">
-        <v>640</v>
-      </c>
-      <c r="P1" t="s">
-        <v>647</v>
-      </c>
-      <c r="R1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="2">
-        <f>'Composition (mass)'!BR97/B39</f>
-        <v>0.20365546247682698</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="L2">
-        <f>($F2*12)+($G2*1)+($H2*16)+($I2*14)</f>
-        <v>180</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N7" si="0">(B2*B$39)/(L2*0.001)</f>
-        <v>0.67885154158942329</v>
-      </c>
-      <c r="O2">
-        <f t="shared" ref="O2:O7" si="1">F2*N2*12</f>
-        <v>48.877310994438474</v>
-      </c>
-      <c r="R2" t="s">
-        <v>523</v>
-      </c>
-      <c r="S2" t="s">
-        <v>309</v>
-      </c>
-      <c r="T2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" t="s">
-        <v>524</v>
-      </c>
-      <c r="V2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <f>'Composition (mass)'!BO97/B39</f>
-        <v>4.9914115193077264E-2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>24</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L26" si="2">($F3*12)+($G3*1)+($H3*16)+($I3*14)</f>
-        <v>352</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="0"/>
-        <v>8.5080878170018068E-2</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="1"/>
-        <v>16.335528608643468</v>
-      </c>
-      <c r="P3">
-        <f>I3*N3*14</f>
-        <v>4.7645291775210117</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>466</v>
-      </c>
-      <c r="R3">
-        <f>(F4-(G4/4)-(H4/2))</f>
-        <v>12.25</v>
-      </c>
-      <c r="S3">
-        <f>F5-(G5/4)-(H5/2)</f>
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <f>(F3-(G3/4)-(H3/2)+((3*I3)/4))</f>
-        <v>10.5</v>
-      </c>
-      <c r="U3">
-        <f>F2-(G2/4)-(H2/2)</f>
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <f>F7-(G7/4)-(H7/2)</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <f>'Composition (mass)'!BP97/B39</f>
-        <v>2.5361088391402772E-2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>45</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>393</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>3.871921891817217E-2</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="1"/>
-        <v>11.615765675451652</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>467</v>
-      </c>
-      <c r="R4">
-        <f>(F4/2)-(G4/8)+(H4/4)</f>
-        <v>7.625</v>
-      </c>
-      <c r="S4">
-        <f>(F5/2)-(G5/8)+(H5/4)</f>
-        <v>5</v>
-      </c>
-      <c r="T4">
-        <f>(F3/2)-(G3/8)+(H3/4)+((3*I3)/8)</f>
-        <v>7.75</v>
-      </c>
-      <c r="U4">
-        <f>(F2/2)-(G2/8)+(H2/4)</f>
-        <v>3</v>
-      </c>
-      <c r="V4">
-        <f>(F7/2)-(G7/8)+(H7/4)</f>
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="33">
-        <f>'Composition (mass)'!BL97/B39</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>18</v>
-      </c>
-      <c r="H5">
-        <v>9</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="2"/>
-        <v>282</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>468</v>
-      </c>
-      <c r="R5">
-        <f>(F4/2)+(G4/8)-(H4/4)</f>
-        <v>17.375</v>
-      </c>
-      <c r="S5">
-        <f>(F5/2)+(G5/8)-(H5/4)</f>
-        <v>5</v>
-      </c>
-      <c r="T5">
-        <f>(F3/2)+(G3/8)-(H3/4)-((3*I3)/8)</f>
-        <v>8.25</v>
-      </c>
-      <c r="U5">
-        <f>(F2/2)+(G2/8)-(H2/4)</f>
-        <v>3</v>
-      </c>
-      <c r="V5">
-        <f>(F7/2)+(G7/8)-(H7/4)</f>
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <f>'Composition (mass)'!BK97/B39</f>
-        <v>1.704528890020731E-3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-      <c r="L6">
-        <v>180</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>5.6817629667357704E-3</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
-        <v>0.40908693360497544</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>469</v>
-      </c>
-      <c r="T6">
-        <f>I3</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2">
-        <f>'Composition (mass)'!BN97/B39</f>
-        <v>1.5942837234335871E-4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>30</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>366</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>2.6135798744812905E-4</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>6.2725916987550978E-2</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>522</v>
-      </c>
-      <c r="R7">
-        <f>(R5*16)/L4</f>
-        <v>0.70737913486005088</v>
-      </c>
-      <c r="S7">
-        <f>(S5*16)/L5</f>
-        <v>0.28368794326241137</v>
-      </c>
-      <c r="T7">
-        <f>(T5*16)/L3</f>
-        <v>0.375</v>
-      </c>
-      <c r="U7">
-        <f>(U5*16)/L2</f>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="V7">
-        <f>(V5*16)/L7</f>
-        <v>0.53551912568306015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="2">
-        <f>'Composition (mass)'!G97/B39</f>
-        <v>1.0254305432973935E-2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <v>6</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="M9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>24</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
-        <v>352</v>
-      </c>
-      <c r="M10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F11">
-        <v>25</v>
-      </c>
-      <c r="G11">
-        <v>45</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="2"/>
-        <v>393</v>
-      </c>
-      <c r="M11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>18</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
-        <v>138</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="F13">
-        <v>20</v>
-      </c>
-      <c r="G13">
-        <v>30</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="2"/>
-        <v>366</v>
-      </c>
-      <c r="M13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <f>(B39*0.01)/B39/10</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <f>($F14*12)+($G14*1)+($H14*16)+($I14*14)</f>
-        <v>113</v>
-      </c>
-      <c r="M14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15">
-        <f>(B39*0.01)/B39/10</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="2"/>
-        <v>113</v>
-      </c>
-      <c r="M15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <f>(B39*0.01)/B39/10</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="2"/>
-        <v>113</v>
-      </c>
-      <c r="M16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17">
-        <f>(B39*0.01)/B39/10</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="2"/>
-        <v>113</v>
-      </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <f>(B39*0.01)/B39/10</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
-        <v>17</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="2"/>
-        <v>247</v>
-      </c>
-      <c r="M18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19">
-        <f>(B39*0.01)/B39/10</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>17</v>
-      </c>
-      <c r="H19">
-        <v>6</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="2"/>
-        <v>247</v>
-      </c>
-      <c r="M19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B20">
-        <f>(B39*0.01)/B39/10</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F20">
-        <v>5</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="2"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-      <c r="G21">
-        <v>7</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="2"/>
-        <v>113</v>
-      </c>
-      <c r="M21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B22">
-        <f>'Composition (mass)'!D97/B39</f>
-        <v>0.71095393374741223</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="2"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="E25" t="s">
-        <v>639</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B26">
-        <f>(('Composition (mass)'!R97)-(Variables!P3*0.001))/B39</f>
-        <v>2.7685774312835446E-4</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="L30">
-        <f>B26*(1+((4*0.001)/0.014))</f>
-        <v>3.559599554507414E-4</v>
-      </c>
-      <c r="N30">
-        <v>3.5595995545074102E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="B39">
-        <f>'Composition (mass)'!C97</f>
-        <v>0.6</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B41" s="39">
-        <v>2E-3</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>641</v>
-      </c>
-      <c r="B46">
-        <f>SUM(O2:O7)</f>
-        <v>77.300418129126129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>642</v>
-      </c>
-      <c r="B47">
-        <f>(B46*0.001)/B39</f>
-        <v>0.12883403021521023</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD039EB6-CAC1-4780-9B81-62B23D513731}">
   <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O1048576"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52693,7 +52692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E22A85-0A6D-4692-91B9-50CA4D04329A}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
